--- a/Turma Maio 2017/Aula 20/Prova 2 turma Maio.xlsx
+++ b/Turma Maio 2017/Aula 20/Prova 2 turma Maio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="7920" xr2:uid="{20A01A96-4863-47FF-9CF8-D9E1F99D6315}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="7530" activeTab="4" xr2:uid="{20A01A96-4863-47FF-9CF8-D9E1F99D6315}"/>
   </bookViews>
   <sheets>
     <sheet name="Prova 2" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="224">
   <si>
     <t>Cidade</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>D5</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1067,6 +1070,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1074,7 +1088,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1084,22 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1121,6 +1120,31 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,25 +1174,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1178,6 +1192,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1493,16 +1509,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1517,7 +1533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686299" y="333375"/>
+          <a:off x="5391149" y="285750"/>
           <a:ext cx="5019675" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2239,7 +2255,7 @@
       <sheetName val="tabela de preço"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2">
@@ -2645,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29531A9F-49D2-4A8C-BFBC-62538C47D0DD}">
   <dimension ref="C3:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -2659,112 +2675,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="3:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="28"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="3:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2780,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019B8F2D-EFCD-4A26-A84A-B3939CC518D6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,18 +2806,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C099CD92-7CA5-425B-99CC-D7822F7C262E}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -2965,422 +2981,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>23</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <v>230</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <f>D4*E4</f>
         <v>5290</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>128</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <v>23.8</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:F17" si="0">D5*E5</f>
         <v>3046.4</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>34</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>247</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>8398</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>21</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>299</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>6279</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>12</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>250.05</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>3000.6000000000004</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>14</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>220</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>3080</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>15</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>210</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>89</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <v>20.9</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>1860.1</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>10</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <v>250</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>45</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="16">
         <v>20</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>12</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <v>220</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>2640</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>13</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="16">
         <v>230</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>2990</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="15">
         <v>90</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="16">
         <v>20.9</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>1880.9999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>5</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <v>299</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>1495</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3396,7 +3412,7 @@
   <dimension ref="B1:H288"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,10 +3437,10 @@
       <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -3438,16 +3454,16 @@
       <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="20">
         <v>2667.6</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -3456,16 +3472,16 @@
       <c r="C3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="20">
         <v>4013.1</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -3474,16 +3490,16 @@
       <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="20">
         <v>3900</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -3492,10 +3508,10 @@
       <c r="C5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="20">
         <v>6000.15</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3506,10 +3522,10 @@
       <c r="C6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="20">
         <v>544</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3520,10 +3536,10 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="20">
         <v>600</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3534,10 +3550,10 @@
       <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="20">
         <v>140</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3548,10 +3564,10 @@
       <c r="C9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="20">
         <v>440</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3562,10 +3578,10 @@
       <c r="C10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <v>1474.41</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3576,10 +3592,10 @@
       <c r="C11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="20">
         <v>2162</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3590,10 +3606,10 @@
       <c r="C12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="20">
         <v>2272</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3604,10 +3620,10 @@
       <c r="C13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="20">
         <v>3887.92</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3618,10 +3634,10 @@
       <c r="C14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="20">
         <v>3060</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3632,10 +3648,10 @@
       <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <v>3329.28</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3646,10 +3662,10 @@
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="20">
         <v>3989.9</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3660,10 +3676,10 @@
       <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <v>10273.1</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3674,10 +3690,10 @@
       <c r="C18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
         <v>4987.5</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3688,10 +3704,10 @@
       <c r="C19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="20">
         <v>1500</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3702,10 +3718,10 @@
       <c r="C20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <v>2362.5</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3716,10 +3732,10 @@
       <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="20">
         <v>7100</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3730,10 +3746,10 @@
       <c r="C22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="20">
         <v>705.6</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3744,10 +3760,10 @@
       <c r="C23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="20">
         <v>2128.5</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3758,10 +3774,10 @@
       <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="20">
         <v>1174.5</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3772,10 +3788,10 @@
       <c r="C25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="20">
         <v>878.4</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3786,10 +3802,10 @@
       <c r="C26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="20">
         <v>2028.25</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3800,10 +3816,10 @@
       <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="20">
         <v>2061.5</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3814,10 +3830,10 @@
       <c r="C28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="20">
         <v>228</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3828,10 +3844,10 @@
       <c r="C29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="20">
         <v>2720.8</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3842,10 +3858,10 @@
       <c r="C30" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="20">
         <v>2424.6</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3856,10 +3872,10 @@
       <c r="C31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="20">
         <v>1100.7</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3870,10 +3886,10 @@
       <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="20">
         <v>360</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3884,10 +3900,10 @@
       <c r="C33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="20">
         <v>590.4</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3898,10 +3914,10 @@
       <c r="C34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="20">
         <v>225.28</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3912,10 +3928,10 @@
       <c r="C35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="20">
         <v>2970</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3926,10 +3942,10 @@
       <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="20">
         <v>1337.6</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3940,10 +3956,10 @@
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="20">
         <v>682</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3954,10 +3970,10 @@
       <c r="C38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="20">
         <v>288.22000000000003</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3968,10 +3984,10 @@
       <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="20">
         <v>85.4</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3982,10 +3998,10 @@
       <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="20">
         <v>744.6</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3996,10 +4012,10 @@
       <c r="C41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="20">
         <v>306</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4010,10 +4026,10 @@
       <c r="C42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="20">
         <v>68.849999999999994</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4024,10 +4040,10 @@
       <c r="C43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="20">
         <v>162.56</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4038,10 +4054,10 @@
       <c r="C44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="20">
         <v>1317.5</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4052,10 +4068,10 @@
       <c r="C45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="20">
         <v>7312.12</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4066,10 +4082,10 @@
       <c r="C46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="20">
         <v>12806.1</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4080,10 +4096,10 @@
       <c r="C47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="20">
         <v>25127.360000000001</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4094,10 +4110,10 @@
       <c r="C48" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="20">
         <v>417.38</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4108,10 +4124,10 @@
       <c r="C49" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="20">
         <v>265</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4122,10 +4138,10 @@
       <c r="C50" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="20">
         <v>1393.9</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4136,10 +4152,10 @@
       <c r="C51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="20">
         <v>911.75</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4150,10 +4166,10 @@
       <c r="C52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="20">
         <v>742</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4164,10 +4180,10 @@
       <c r="C53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="20">
         <v>187.6</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4178,10 +4194,10 @@
       <c r="C54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="20">
         <v>226.8</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4192,10 +4208,10 @@
       <c r="C55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="20">
         <v>2472.5</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4206,10 +4222,10 @@
       <c r="C56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="20">
         <v>4454.8</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4220,10 +4236,10 @@
       <c r="C57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="20">
         <v>2541.29</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4234,10 +4250,10 @@
       <c r="C58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="20">
         <v>174.15</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4248,10 +4264,10 @@
       <c r="C59" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="20">
         <v>294</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4262,10 +4278,10 @@
       <c r="C60" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="20">
         <v>242.5</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4276,10 +4292,10 @@
       <c r="C61" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="20">
         <v>150</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4290,10 +4306,10 @@
       <c r="C62" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="20">
         <v>99.5</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4304,10 +4320,10 @@
       <c r="C63" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="20">
         <v>176.7</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4318,10 +4334,10 @@
       <c r="C64" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="20">
         <v>1298.1199999999999</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4332,10 +4348,10 @@
       <c r="C65" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="20">
         <v>9032.6</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4346,10 +4362,10 @@
       <c r="C66" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="25">
+      <c r="D66" s="20">
         <v>9868.6</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4360,10 +4376,10 @@
       <c r="C67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="20">
         <v>6771.6</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4374,10 +4390,10 @@
       <c r="C68" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="20">
         <v>6931.2</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4388,10 +4404,10 @@
       <c r="C69" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="20">
         <v>2681.87</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4402,10 +4418,10 @@
       <c r="C70" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="25">
+      <c r="D70" s="20">
         <v>2993.12</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4416,10 +4432,10 @@
       <c r="C71" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="25">
+      <c r="D71" s="20">
         <v>487</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4430,10 +4446,10 @@
       <c r="C72" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="25">
+      <c r="D72" s="20">
         <v>1458.75</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4444,10 +4460,10 @@
       <c r="C73" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="20">
         <v>1750</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4458,10 +4474,10 @@
       <c r="C74" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="20">
         <v>750</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4472,10 +4488,10 @@
       <c r="C75" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="20">
         <v>421.2</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4486,10 +4502,10 @@
       <c r="C76" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D76" s="20">
         <v>208</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4500,10 +4516,10 @@
       <c r="C77" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="20">
         <v>467.55</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4514,10 +4530,10 @@
       <c r="C78" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="20">
         <v>337.5</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4528,10 +4544,10 @@
       <c r="C79" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="20">
         <v>219.37</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4542,10 +4558,10 @@
       <c r="C80" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="20">
         <v>529.20000000000005</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4556,10 +4572,10 @@
       <c r="C81" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="20">
         <v>2649.6</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4570,10 +4586,10 @@
       <c r="C82" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="20">
         <v>5652</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4584,10 +4600,10 @@
       <c r="C83" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="25">
+      <c r="D83" s="20">
         <v>4473</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4598,10 +4614,10 @@
       <c r="C84" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="20">
         <v>1267.2</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4612,10 +4628,10 @@
       <c r="C85" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D85" s="25">
+      <c r="D85" s="20">
         <v>1701.87</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4626,10 +4642,10 @@
       <c r="C86" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D86" s="25">
+      <c r="D86" s="20">
         <v>1093.0899999999999</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4640,10 +4656,10 @@
       <c r="C87" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="25">
+      <c r="D87" s="20">
         <v>1753.62</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4654,10 +4670,10 @@
       <c r="C88" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="25">
+      <c r="D88" s="20">
         <v>1994.85</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4668,10 +4684,10 @@
       <c r="C89" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="25">
+      <c r="D89" s="20">
         <v>2835.68</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4682,10 +4698,10 @@
       <c r="C90" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="25">
+      <c r="D90" s="20">
         <v>5079.6000000000004</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4696,10 +4712,10 @@
       <c r="C91" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D91" s="25">
+      <c r="D91" s="20">
         <v>1249.2</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4710,10 +4726,10 @@
       <c r="C92" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="20">
         <v>2061.17</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4724,10 +4740,10 @@
       <c r="C93" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="25">
+      <c r="D93" s="20">
         <v>504</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4738,10 +4754,10 @@
       <c r="C94" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D94" s="25">
+      <c r="D94" s="20">
         <v>3318</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4752,10 +4768,10 @@
       <c r="C95" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="25">
+      <c r="D95" s="20">
         <v>210</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4766,10 +4782,10 @@
       <c r="C96" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="25">
+      <c r="D96" s="20">
         <v>201.6</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4780,10 +4796,10 @@
       <c r="C97" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D97" s="20">
         <v>3323.2</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4794,10 +4810,10 @@
       <c r="C98" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D98" s="20">
         <v>3747.9</v>
       </c>
-      <c r="E98" s="26" t="s">
+      <c r="E98" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4808,10 +4824,10 @@
       <c r="C99" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="25">
+      <c r="D99" s="20">
         <v>533.20000000000005</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4822,10 +4838,10 @@
       <c r="C100" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="25">
+      <c r="D100" s="20">
         <v>1215.2</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4836,10 +4852,10 @@
       <c r="C101" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D101" s="25">
+      <c r="D101" s="20">
         <v>2199.25</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4850,10 +4866,10 @@
       <c r="C102" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="25">
+      <c r="D102" s="20">
         <v>2698</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4864,10 +4880,10 @@
       <c r="C103" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="25">
+      <c r="D103" s="20">
         <v>1928.5</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4878,10 +4894,10 @@
       <c r="C104" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="20">
         <v>68.400000000000006</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4892,10 +4908,10 @@
       <c r="C105" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="25">
+      <c r="D105" s="20">
         <v>1398.4</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4906,10 +4922,10 @@
       <c r="C106" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="25">
+      <c r="D106" s="20">
         <v>4496.5</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E106" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4920,10 +4936,10 @@
       <c r="C107" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="25">
+      <c r="D107" s="20">
         <v>1196</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4934,10 +4950,10 @@
       <c r="C108" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="25">
+      <c r="D108" s="20">
         <v>3979</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4948,10 +4964,10 @@
       <c r="C109" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="20">
         <v>2542.77</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4962,10 +4978,10 @@
       <c r="C110" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D110" s="25">
+      <c r="D110" s="20">
         <v>468.51</v>
       </c>
-      <c r="E110" s="26" t="s">
+      <c r="E110" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4976,10 +4992,10 @@
       <c r="C111" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="25">
+      <c r="D111" s="20">
         <v>1242.52</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4990,10 +5006,10 @@
       <c r="C112" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D112" s="25">
+      <c r="D112" s="20">
         <v>385</v>
       </c>
-      <c r="E112" s="26" t="s">
+      <c r="E112" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5004,10 +5020,10 @@
       <c r="C113" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="25">
+      <c r="D113" s="20">
         <v>168</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5018,10 +5034,10 @@
       <c r="C114" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="20">
         <v>61.44</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5032,10 +5048,10 @@
       <c r="C115" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="25">
+      <c r="D115" s="20">
         <v>60</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5046,10 +5062,10 @@
       <c r="C116" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="25">
+      <c r="D116" s="20">
         <v>469.5</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5060,10 +5076,10 @@
       <c r="C117" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="20">
         <v>1141.92</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E117" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5074,10 +5090,10 @@
       <c r="C118" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="20">
         <v>3261.6</v>
       </c>
-      <c r="E118" s="26" t="s">
+      <c r="E118" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5088,10 +5104,10 @@
       <c r="C119" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D119" s="25">
+      <c r="D119" s="20">
         <v>1774.08</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5102,10 +5118,10 @@
       <c r="C120" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D120" s="25">
+      <c r="D120" s="20">
         <v>1705.5</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5116,10 +5132,10 @@
       <c r="C121" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="20">
         <v>350</v>
       </c>
-      <c r="E121" s="26" t="s">
+      <c r="E121" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5130,10 +5146,10 @@
       <c r="C122" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D122" s="25">
+      <c r="D122" s="20">
         <v>42</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5144,10 +5160,10 @@
       <c r="C123" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D123" s="25">
+      <c r="D123" s="20">
         <v>518</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="E123" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5158,10 +5174,10 @@
       <c r="C124" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D124" s="25">
+      <c r="D124" s="20">
         <v>128</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5172,10 +5188,10 @@
       <c r="C125" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D125" s="25">
+      <c r="D125" s="20">
         <v>360</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5186,10 +5202,10 @@
       <c r="C126" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="25">
+      <c r="D126" s="20">
         <v>400</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5200,10 +5216,10 @@
       <c r="C127" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D127" s="25">
+      <c r="D127" s="20">
         <v>2150.77</v>
       </c>
-      <c r="E127" s="26" t="s">
+      <c r="E127" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5214,10 +5230,10 @@
       <c r="C128" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D128" s="25">
+      <c r="D128" s="20">
         <v>1347.36</v>
       </c>
-      <c r="E128" s="26" t="s">
+      <c r="E128" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5228,10 +5244,10 @@
       <c r="C129" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="25">
+      <c r="D129" s="20">
         <v>3857.41</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5242,10 +5258,10 @@
       <c r="C130" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D130" s="25">
+      <c r="D130" s="20">
         <v>1975.54</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5256,10 +5272,10 @@
       <c r="C131" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="25">
+      <c r="D131" s="20">
         <v>816</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5270,10 +5286,10 @@
       <c r="C132" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D132" s="25">
+      <c r="D132" s="20">
         <v>1224</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5284,10 +5300,10 @@
       <c r="C133" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="25">
+      <c r="D133" s="20">
         <v>918</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5298,10 +5314,10 @@
       <c r="C134" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D134" s="25">
+      <c r="D134" s="20">
         <v>1411.92</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5312,10 +5328,10 @@
       <c r="C135" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D135" s="25">
+      <c r="D135" s="20">
         <v>8384.6</v>
       </c>
-      <c r="E135" s="26" t="s">
+      <c r="E135" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5326,10 +5342,10 @@
       <c r="C136" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D136" s="25">
+      <c r="D136" s="20">
         <v>11898.5</v>
       </c>
-      <c r="E136" s="26" t="s">
+      <c r="E136" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5340,10 +5356,10 @@
       <c r="C137" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D137" s="25">
+      <c r="D137" s="20">
         <v>1855</v>
       </c>
-      <c r="E137" s="26" t="s">
+      <c r="E137" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5354,10 +5370,10 @@
       <c r="C138" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D138" s="25">
+      <c r="D138" s="20">
         <v>2220.8000000000002</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="E138" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5368,10 +5384,10 @@
       <c r="C139" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D139" s="25">
+      <c r="D139" s="20">
         <v>448</v>
       </c>
-      <c r="E139" s="26" t="s">
+      <c r="E139" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5382,10 +5398,10 @@
       <c r="C140" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D140" s="25">
+      <c r="D140" s="20">
         <v>1605.6</v>
       </c>
-      <c r="E140" s="26" t="s">
+      <c r="E140" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5396,10 +5412,10 @@
       <c r="C141" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D141" s="25">
+      <c r="D141" s="20">
         <v>620</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5410,10 +5426,10 @@
       <c r="C142" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D142" s="25">
+      <c r="D142" s="20">
         <v>835</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E142" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5424,10 +5440,10 @@
       <c r="C143" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D143" s="25">
+      <c r="D143" s="20">
         <v>1396.8</v>
       </c>
-      <c r="E143" s="26" t="s">
+      <c r="E143" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5438,10 +5454,10 @@
       <c r="C144" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D144" s="25">
+      <c r="D144" s="20">
         <v>1319.2</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5452,10 +5468,10 @@
       <c r="C145" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D145" s="25">
+      <c r="D145" s="20">
         <v>4219.5</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5466,10 +5482,10 @@
       <c r="C146" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D146" s="25">
+      <c r="D146" s="20">
         <v>1973.8</v>
       </c>
-      <c r="E146" s="26" t="s">
+      <c r="E146" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5480,10 +5496,10 @@
       <c r="C147" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D147" s="25">
+      <c r="D147" s="20">
         <v>3027.6</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5494,10 +5510,10 @@
       <c r="C148" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D148" s="25">
+      <c r="D148" s="20">
         <v>4488.2</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5508,10 +5524,10 @@
       <c r="C149" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D149" s="25">
+      <c r="D149" s="20">
         <v>2349</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5522,10 +5538,10 @@
       <c r="C150" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D150" s="25">
+      <c r="D150" s="20">
         <v>1922.33</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5536,10 +5552,10 @@
       <c r="C151" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D151" s="25">
+      <c r="D151" s="20">
         <v>815.54</v>
       </c>
-      <c r="E151" s="26" t="s">
+      <c r="E151" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5550,10 +5566,10 @@
       <c r="C152" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D152" s="25">
+      <c r="D152" s="20">
         <v>1308.24</v>
       </c>
-      <c r="E152" s="26" t="s">
+      <c r="E152" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5564,10 +5580,10 @@
       <c r="C153" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D153" s="25">
+      <c r="D153" s="20">
         <v>1838.19</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5578,10 +5594,10 @@
       <c r="C154" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D154" s="25">
+      <c r="D154" s="20">
         <v>2960</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5592,10 +5608,10 @@
       <c r="C155" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D155" s="25">
+      <c r="D155" s="20">
         <v>1300</v>
       </c>
-      <c r="E155" s="26" t="s">
+      <c r="E155" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5606,10 +5622,10 @@
       <c r="C156" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D156" s="25">
+      <c r="D156" s="20">
         <v>193.2</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5620,10 +5636,10 @@
       <c r="C157" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D157" s="25">
+      <c r="D157" s="20">
         <v>865.2</v>
       </c>
-      <c r="E157" s="26" t="s">
+      <c r="E157" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5634,10 +5650,10 @@
       <c r="C158" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D158" s="25">
+      <c r="D158" s="20">
         <v>493.5</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5648,10 +5664,10 @@
       <c r="C159" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D159" s="25">
+      <c r="D159" s="20">
         <v>1112.8</v>
       </c>
-      <c r="E159" s="26" t="s">
+      <c r="E159" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5662,10 +5678,10 @@
       <c r="C160" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D160" s="25">
+      <c r="D160" s="20">
         <v>1027.78</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5676,10 +5692,10 @@
       <c r="C161" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D161" s="25">
+      <c r="D161" s="20">
         <v>2255.5</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5690,10 +5706,10 @@
       <c r="C162" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D162" s="25">
+      <c r="D162" s="20">
         <v>510.9</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5704,10 +5720,10 @@
       <c r="C163" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D163" s="25">
+      <c r="D163" s="20">
         <v>384</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5718,10 +5734,10 @@
       <c r="C164" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D164" s="25">
+      <c r="D164" s="20">
         <v>1252.5</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5732,10 +5748,10 @@
       <c r="C165" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D165" s="25">
+      <c r="D165" s="20">
         <v>1508.4</v>
       </c>
-      <c r="E165" s="26" t="s">
+      <c r="E165" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5746,10 +5762,10 @@
       <c r="C166" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D166" s="25">
+      <c r="D166" s="20">
         <v>2683.5</v>
       </c>
-      <c r="E166" s="26" t="s">
+      <c r="E166" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5760,10 +5776,10 @@
       <c r="C167" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D167" s="25">
+      <c r="D167" s="20">
         <v>936</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5774,10 +5790,10 @@
       <c r="C168" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D168" s="25">
+      <c r="D168" s="20">
         <v>864</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5788,10 +5804,10 @@
       <c r="C169" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D169" s="25">
+      <c r="D169" s="20">
         <v>1316.4</v>
       </c>
-      <c r="E169" s="26" t="s">
+      <c r="E169" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5802,10 +5818,10 @@
       <c r="C170" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D170" s="25">
+      <c r="D170" s="20">
         <v>5710.08</v>
       </c>
-      <c r="E170" s="26" t="s">
+      <c r="E170" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5816,10 +5832,10 @@
       <c r="C171" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D171" s="25">
+      <c r="D171" s="20">
         <v>999.01</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5830,10 +5846,10 @@
       <c r="C172" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D172" s="25">
+      <c r="D172" s="20">
         <v>1849.7</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5844,10 +5860,10 @@
       <c r="C173" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D173" s="25">
+      <c r="D173" s="20">
         <v>2646.08</v>
       </c>
-      <c r="E173" s="26" t="s">
+      <c r="E173" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5858,10 +5874,10 @@
       <c r="C174" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D174" s="25">
+      <c r="D174" s="20">
         <v>1685.36</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5872,10 +5888,10 @@
       <c r="C175" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D175" s="25">
+      <c r="D175" s="20">
         <v>5154.8500000000004</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5886,10 +5902,10 @@
       <c r="C176" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D176" s="25">
+      <c r="D176" s="20">
         <v>2099.1999999999998</v>
       </c>
-      <c r="E176" s="26" t="s">
+      <c r="E176" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5900,10 +5916,10 @@
       <c r="C177" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D177" s="25">
+      <c r="D177" s="20">
         <v>1500.6</v>
       </c>
-      <c r="E177" s="26" t="s">
+      <c r="E177" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5914,10 +5930,10 @@
       <c r="C178" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D178" s="25">
+      <c r="D178" s="20">
         <v>4029.48</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5928,10 +5944,10 @@
       <c r="C179" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="25">
+      <c r="D179" s="20">
         <v>1357.44</v>
       </c>
-      <c r="E179" s="26" t="s">
+      <c r="E179" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5942,10 +5958,10 @@
       <c r="C180" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D180" s="25">
+      <c r="D180" s="20">
         <v>3029.25</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5956,10 +5972,10 @@
       <c r="C181" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D181" s="25">
+      <c r="D181" s="20">
         <v>504</v>
       </c>
-      <c r="E181" s="26" t="s">
+      <c r="E181" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5970,10 +5986,10 @@
       <c r="C182" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D182" s="25">
+      <c r="D182" s="20">
         <v>656.25</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5984,10 +6000,10 @@
       <c r="C183" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D183" s="25">
+      <c r="D183" s="20">
         <v>1162.8</v>
       </c>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5998,10 +6014,10 @@
       <c r="C184" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D184" s="25">
+      <c r="D184" s="20">
         <v>456</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6012,10 +6028,10 @@
       <c r="C185" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D185" s="25">
+      <c r="D185" s="20">
         <v>1396.5</v>
       </c>
-      <c r="E185" s="26" t="s">
+      <c r="E185" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6026,10 +6042,10 @@
       <c r="C186" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D186" s="25">
+      <c r="D186" s="20">
         <v>5320</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6040,10 +6056,10 @@
       <c r="C187" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D187" s="25">
+      <c r="D187" s="20">
         <v>9116.7999999999993</v>
       </c>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6054,10 +6070,10 @@
       <c r="C188" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D188" s="25">
+      <c r="D188" s="20">
         <v>5087.5</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6068,10 +6084,10 @@
       <c r="C189" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D189" s="25">
+      <c r="D189" s="20">
         <v>7452.5</v>
       </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6082,10 +6098,10 @@
       <c r="C190" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D190" s="25">
+      <c r="D190" s="20">
         <v>11959.75</v>
       </c>
-      <c r="E190" s="26" t="s">
+      <c r="E190" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6096,10 +6112,10 @@
       <c r="C191" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D191" s="25">
+      <c r="D191" s="20">
         <v>87.75</v>
       </c>
-      <c r="E191" s="26" t="s">
+      <c r="E191" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6110,10 +6126,10 @@
       <c r="C192" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D192" s="25">
+      <c r="D192" s="20">
         <v>499.2</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6124,10 +6140,10 @@
       <c r="C193" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D193" s="25">
+      <c r="D193" s="20">
         <v>585</v>
       </c>
-      <c r="E193" s="26" t="s">
+      <c r="E193" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6138,10 +6154,10 @@
       <c r="C194" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D194" s="25">
+      <c r="D194" s="20">
         <v>984.75</v>
       </c>
-      <c r="E194" s="26" t="s">
+      <c r="E194" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6152,10 +6168,10 @@
       <c r="C195" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D195" s="25">
+      <c r="D195" s="20">
         <v>1233.8</v>
       </c>
-      <c r="E195" s="26" t="s">
+      <c r="E195" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6166,10 +6182,10 @@
       <c r="C196" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D196" s="25">
+      <c r="D196" s="20">
         <v>1233.8</v>
       </c>
-      <c r="E196" s="26" t="s">
+      <c r="E196" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6180,10 +6196,10 @@
       <c r="C197" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D197" s="25">
+      <c r="D197" s="20">
         <v>214.52</v>
       </c>
-      <c r="E197" s="26" t="s">
+      <c r="E197" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6194,10 +6210,10 @@
       <c r="C198" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D198" s="25">
+      <c r="D198" s="20">
         <v>1508.92</v>
       </c>
-      <c r="E198" s="26" t="s">
+      <c r="E198" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6208,10 +6224,10 @@
       <c r="C199" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D199" s="25">
+      <c r="D199" s="20">
         <v>1646.25</v>
       </c>
-      <c r="E199" s="26" t="s">
+      <c r="E199" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6222,10 +6238,10 @@
       <c r="C200" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D200" s="25">
+      <c r="D200" s="20">
         <v>714</v>
       </c>
-      <c r="E200" s="26" t="s">
+      <c r="E200" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6236,10 +6252,10 @@
       <c r="C201" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D201" s="25">
+      <c r="D201" s="20">
         <v>216</v>
       </c>
-      <c r="E201" s="26" t="s">
+      <c r="E201" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6250,10 +6266,10 @@
       <c r="C202" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D202" s="25">
+      <c r="D202" s="20">
         <v>941.25</v>
       </c>
-      <c r="E202" s="26" t="s">
+      <c r="E202" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6264,10 +6280,10 @@
       <c r="C203" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D203" s="25">
+      <c r="D203" s="20">
         <v>1953.67</v>
       </c>
-      <c r="E203" s="26" t="s">
+      <c r="E203" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6278,10 +6294,10 @@
       <c r="C204" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D204" s="25">
+      <c r="D204" s="20">
         <v>190</v>
       </c>
-      <c r="E204" s="26" t="s">
+      <c r="E204" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6292,10 +6308,10 @@
       <c r="C205" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D205" s="25">
+      <c r="D205" s="20">
         <v>1007</v>
       </c>
-      <c r="E205" s="26" t="s">
+      <c r="E205" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6306,10 +6322,10 @@
       <c r="C206" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D206" s="25">
+      <c r="D206" s="20">
         <v>205.2</v>
       </c>
-      <c r="E206" s="26" t="s">
+      <c r="E206" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6320,10 +6336,10 @@
       <c r="C207" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D207" s="25">
+      <c r="D207" s="20">
         <v>1881</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E207" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6334,10 +6350,10 @@
       <c r="C208" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D208" s="25">
+      <c r="D208" s="20">
         <v>4105.92</v>
       </c>
-      <c r="E208" s="26" t="s">
+      <c r="E208" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6348,10 +6364,10 @@
       <c r="C209" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D209" s="25">
+      <c r="D209" s="20">
         <v>3556.8</v>
       </c>
-      <c r="E209" s="26" t="s">
+      <c r="E209" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6362,10 +6378,10 @@
       <c r="C210" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D210" s="25">
+      <c r="D210" s="20">
         <v>3310.56</v>
       </c>
-      <c r="E210" s="26" t="s">
+      <c r="E210" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6376,10 +6392,10 @@
       <c r="C211" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D211" s="25">
+      <c r="D211" s="20">
         <v>1037.4000000000001</v>
       </c>
-      <c r="E211" s="26" t="s">
+      <c r="E211" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6390,10 +6406,10 @@
       <c r="C212" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D212" s="25">
+      <c r="D212" s="20">
         <v>179.2</v>
       </c>
-      <c r="E212" s="26" t="s">
+      <c r="E212" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6404,10 +6420,10 @@
       <c r="C213" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D213" s="25">
+      <c r="D213" s="20">
         <v>750.4</v>
       </c>
-      <c r="E213" s="26" t="s">
+      <c r="E213" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6418,10 +6434,10 @@
       <c r="C214" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D214" s="25">
+      <c r="D214" s="20">
         <v>2195</v>
       </c>
-      <c r="E214" s="26" t="s">
+      <c r="E214" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6432,10 +6448,10 @@
       <c r="C215" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D215" s="25">
+      <c r="D215" s="20">
         <v>1756</v>
       </c>
-      <c r="E215" s="26" t="s">
+      <c r="E215" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6446,10 +6462,10 @@
       <c r="C216" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D216" s="25">
+      <c r="D216" s="20">
         <v>5268</v>
       </c>
-      <c r="E216" s="26" t="s">
+      <c r="E216" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6460,10 +6476,10 @@
       <c r="C217" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D217" s="25">
+      <c r="D217" s="20">
         <v>1755</v>
       </c>
-      <c r="E217" s="26" t="s">
+      <c r="E217" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6474,10 +6490,10 @@
       <c r="C218" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D218" s="25">
+      <c r="D218" s="20">
         <v>1062.5</v>
       </c>
-      <c r="E218" s="26" t="s">
+      <c r="E218" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6488,10 +6504,10 @@
       <c r="C219" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D219" s="25">
+      <c r="D219" s="20">
         <v>492.5</v>
       </c>
-      <c r="E219" s="26" t="s">
+      <c r="E219" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6502,10 +6518,10 @@
       <c r="C220" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D220" s="25">
+      <c r="D220" s="20">
         <v>1935</v>
       </c>
-      <c r="E220" s="26" t="s">
+      <c r="E220" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6516,10 +6532,10 @@
       <c r="C221" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D221" s="25">
+      <c r="D221" s="20">
         <v>1267.5</v>
       </c>
-      <c r="E221" s="26" t="s">
+      <c r="E221" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6530,10 +6546,10 @@
       <c r="C222" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D222" s="25">
+      <c r="D222" s="20">
         <v>978.6</v>
       </c>
-      <c r="E222" s="26" t="s">
+      <c r="E222" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6544,10 +6560,10 @@
       <c r="C223" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D223" s="25">
+      <c r="D223" s="20">
         <v>2307.1999999999998</v>
       </c>
-      <c r="E223" s="26" t="s">
+      <c r="E223" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6558,10 +6574,10 @@
       <c r="C224" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D224" s="25">
+      <c r="D224" s="20">
         <v>912.8</v>
       </c>
-      <c r="E224" s="26" t="s">
+      <c r="E224" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6572,10 +6588,10 @@
       <c r="C225" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D225" s="25">
+      <c r="D225" s="20">
         <v>985.6</v>
       </c>
-      <c r="E225" s="26" t="s">
+      <c r="E225" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6586,10 +6602,10 @@
       <c r="C226" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D226" s="25">
+      <c r="D226" s="20">
         <v>4252.5</v>
       </c>
-      <c r="E226" s="26" t="s">
+      <c r="E226" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6600,10 +6616,10 @@
       <c r="C227" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D227" s="25">
+      <c r="D227" s="20">
         <v>1701</v>
       </c>
-      <c r="E227" s="26" t="s">
+      <c r="E227" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6614,10 +6630,10 @@
       <c r="C228" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D228" s="25">
+      <c r="D228" s="20">
         <v>1360.8</v>
       </c>
-      <c r="E228" s="26" t="s">
+      <c r="E228" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6628,10 +6644,10 @@
       <c r="C229" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D229" s="25">
+      <c r="D229" s="20">
         <v>1434</v>
       </c>
-      <c r="E229" s="26" t="s">
+      <c r="E229" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6642,10 +6658,10 @@
       <c r="C230" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D230" s="25">
+      <c r="D230" s="20">
         <v>1733</v>
       </c>
-      <c r="E230" s="26" t="s">
+      <c r="E230" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6656,10 +6672,10 @@
       <c r="C231" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D231" s="25">
+      <c r="D231" s="20">
         <v>1418</v>
       </c>
-      <c r="E231" s="26" t="s">
+      <c r="E231" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6670,10 +6686,10 @@
       <c r="C232" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D232" s="25">
+      <c r="D232" s="20">
         <v>756</v>
       </c>
-      <c r="E232" s="26" t="s">
+      <c r="E232" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6684,10 +6700,10 @@
       <c r="C233" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D233" s="25">
+      <c r="D233" s="20">
         <v>2679</v>
       </c>
-      <c r="E233" s="26" t="s">
+      <c r="E233" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6698,10 +6714,10 @@
       <c r="C234" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D234" s="25">
+      <c r="D234" s="20">
         <v>1510.5</v>
       </c>
-      <c r="E234" s="26" t="s">
+      <c r="E234" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6712,10 +6728,10 @@
       <c r="C235" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D235" s="25">
+      <c r="D235" s="20">
         <v>1881</v>
       </c>
-      <c r="E235" s="26" t="s">
+      <c r="E235" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6726,10 +6742,10 @@
       <c r="C236" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D236" s="25">
+      <c r="D236" s="20">
         <v>3021</v>
       </c>
-      <c r="E236" s="26" t="s">
+      <c r="E236" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6740,10 +6756,10 @@
       <c r="C237" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D237" s="25">
+      <c r="D237" s="20">
         <v>91.8</v>
       </c>
-      <c r="E237" s="26" t="s">
+      <c r="E237" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6754,10 +6770,10 @@
       <c r="C238" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D238" s="25">
+      <c r="D238" s="20">
         <v>1504.8</v>
       </c>
-      <c r="E238" s="26" t="s">
+      <c r="E238" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6768,10 +6784,10 @@
       <c r="C239" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D239" s="25">
+      <c r="D239" s="20">
         <v>823.2</v>
       </c>
-      <c r="E239" s="26" t="s">
+      <c r="E239" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6782,10 +6798,10 @@
       <c r="C240" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D240" s="25">
+      <c r="D240" s="20">
         <v>803.52</v>
       </c>
-      <c r="E240" s="26" t="s">
+      <c r="E240" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6796,10 +6812,10 @@
       <c r="C241" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D241" s="25">
+      <c r="D241" s="20">
         <v>1742.4</v>
       </c>
-      <c r="E241" s="26" t="s">
+      <c r="E241" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6810,10 +6826,10 @@
       <c r="C242" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D242" s="25">
+      <c r="D242" s="20">
         <v>1273.5</v>
       </c>
-      <c r="E242" s="26" t="s">
+      <c r="E242" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6824,10 +6840,10 @@
       <c r="C243" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D243" s="25">
+      <c r="D243" s="20">
         <v>1683</v>
       </c>
-      <c r="E243" s="26" t="s">
+      <c r="E243" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6838,10 +6854,10 @@
       <c r="C244" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D244" s="25">
+      <c r="D244" s="20">
         <v>1008</v>
       </c>
-      <c r="E244" s="26" t="s">
+      <c r="E244" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6852,10 +6868,10 @@
       <c r="C245" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D245" s="25">
+      <c r="D245" s="20">
         <v>5472.3</v>
       </c>
-      <c r="E245" s="26" t="s">
+      <c r="E245" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6866,10 +6882,10 @@
       <c r="C246" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D246" s="25">
+      <c r="D246" s="20">
         <v>4547.92</v>
       </c>
-      <c r="E246" s="26" t="s">
+      <c r="E246" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6880,10 +6896,10 @@
       <c r="C247" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D247" s="25">
+      <c r="D247" s="20">
         <v>4728</v>
       </c>
-      <c r="E247" s="26" t="s">
+      <c r="E247" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6894,10 +6910,10 @@
       <c r="C248" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D248" s="25">
+      <c r="D248" s="20">
         <v>6014.6</v>
       </c>
-      <c r="E248" s="26" t="s">
+      <c r="E248" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6908,10 +6924,10 @@
       <c r="C249" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D249" s="25">
+      <c r="D249" s="20">
         <v>349.6</v>
       </c>
-      <c r="E249" s="26" t="s">
+      <c r="E249" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6922,10 +6938,10 @@
       <c r="C250" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D250" s="25">
+      <c r="D250" s="20">
         <v>204.7</v>
       </c>
-      <c r="E250" s="26" t="s">
+      <c r="E250" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6936,10 +6952,10 @@
       <c r="C251" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D251" s="25">
+      <c r="D251" s="20">
         <v>943.89</v>
       </c>
-      <c r="E251" s="26" t="s">
+      <c r="E251" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6950,10 +6966,10 @@
       <c r="C252" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D252" s="25">
+      <c r="D252" s="20">
         <v>841.8</v>
       </c>
-      <c r="E252" s="26" t="s">
+      <c r="E252" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6964,10 +6980,10 @@
       <c r="C253" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D253" s="25">
+      <c r="D253" s="20">
         <v>5702.4</v>
       </c>
-      <c r="E253" s="26" t="s">
+      <c r="E253" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6978,10 +6994,10 @@
       <c r="C254" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D254" s="25">
+      <c r="D254" s="20">
         <v>8912.8799999999992</v>
       </c>
-      <c r="E254" s="26" t="s">
+      <c r="E254" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6992,10 +7008,10 @@
       <c r="C255" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D255" s="25">
+      <c r="D255" s="20">
         <v>14037.79</v>
       </c>
-      <c r="E255" s="26" t="s">
+      <c r="E255" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7006,10 +7022,10 @@
       <c r="C256" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D256" s="25">
+      <c r="D256" s="20">
         <v>4456.4399999999996</v>
       </c>
-      <c r="E256" s="26" t="s">
+      <c r="E256" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7020,10 +7036,10 @@
       <c r="C257" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D257" s="25">
+      <c r="D257" s="20">
         <v>470.81</v>
       </c>
-      <c r="E257" s="26" t="s">
+      <c r="E257" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7034,10 +7050,10 @@
       <c r="C258" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D258" s="25">
+      <c r="D258" s="20">
         <v>1866.97</v>
       </c>
-      <c r="E258" s="26" t="s">
+      <c r="E258" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7048,10 +7064,10 @@
       <c r="C259" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D259" s="25">
+      <c r="D259" s="20">
         <v>2185.5</v>
       </c>
-      <c r="E259" s="26" t="s">
+      <c r="E259" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7062,10 +7078,10 @@
       <c r="C260" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D260" s="25">
+      <c r="D260" s="20">
         <v>2018.1</v>
       </c>
-      <c r="E260" s="26" t="s">
+      <c r="E260" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7076,10 +7092,10 @@
       <c r="C261" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D261" s="25">
+      <c r="D261" s="20">
         <v>490.21</v>
       </c>
-      <c r="E261" s="26" t="s">
+      <c r="E261" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7090,10 +7106,10 @@
       <c r="C262" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D262" s="25">
+      <c r="D262" s="20">
         <v>966.42</v>
       </c>
-      <c r="E262" s="26" t="s">
+      <c r="E262" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7104,10 +7120,10 @@
       <c r="C263" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D263" s="25">
+      <c r="D263" s="20">
         <v>978.93</v>
       </c>
-      <c r="E263" s="26" t="s">
+      <c r="E263" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7118,10 +7134,10 @@
       <c r="C264" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D264" s="25">
+      <c r="D264" s="20">
         <v>666.03</v>
       </c>
-      <c r="E264" s="26" t="s">
+      <c r="E264" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7132,10 +7148,10 @@
       <c r="C265" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D265" s="25">
+      <c r="D265" s="20">
         <v>778.5</v>
       </c>
-      <c r="E265" s="26" t="s">
+      <c r="E265" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7146,10 +7162,10 @@
       <c r="C266" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D266" s="25">
+      <c r="D266" s="20">
         <v>423</v>
       </c>
-      <c r="E266" s="26" t="s">
+      <c r="E266" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7160,10 +7176,10 @@
       <c r="C267" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D267" s="25">
+      <c r="D267" s="20">
         <v>979.2</v>
       </c>
-      <c r="E267" s="26" t="s">
+      <c r="E267" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7174,10 +7190,10 @@
       <c r="C268" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D268" s="25">
+      <c r="D268" s="20">
         <v>396</v>
       </c>
-      <c r="E268" s="26" t="s">
+      <c r="E268" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7188,10 +7204,10 @@
       <c r="C269" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D269" s="25">
+      <c r="D269" s="20">
         <v>1084.8</v>
       </c>
-      <c r="E269" s="26" t="s">
+      <c r="E269" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7202,10 +7218,10 @@
       <c r="C270" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D270" s="25">
+      <c r="D270" s="20">
         <v>3826.5</v>
       </c>
-      <c r="E270" s="26" t="s">
+      <c r="E270" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7216,10 +7232,10 @@
       <c r="C271" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D271" s="25">
+      <c r="D271" s="20">
         <v>2700</v>
       </c>
-      <c r="E271" s="26" t="s">
+      <c r="E271" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7230,10 +7246,10 @@
       <c r="C272" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D272" s="25">
+      <c r="D272" s="20">
         <v>1575</v>
       </c>
-      <c r="E272" s="26" t="s">
+      <c r="E272" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7244,10 +7260,10 @@
       <c r="C273" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D273" s="25">
+      <c r="D273" s="20">
         <v>845</v>
       </c>
-      <c r="E273" s="26" t="s">
+      <c r="E273" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7258,10 +7274,10 @@
       <c r="C274" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D274" s="25">
+      <c r="D274" s="20">
         <v>942.5</v>
       </c>
-      <c r="E274" s="26" t="s">
+      <c r="E274" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7272,10 +7288,10 @@
       <c r="C275" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D275" s="25">
+      <c r="D275" s="20">
         <v>385.94</v>
       </c>
-      <c r="E275" s="26" t="s">
+      <c r="E275" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7286,10 +7302,10 @@
       <c r="C276" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D276" s="25">
+      <c r="D276" s="20">
         <v>2590.1</v>
       </c>
-      <c r="E276" s="26" t="s">
+      <c r="E276" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7300,10 +7316,10 @@
       <c r="C277" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D277" s="25">
+      <c r="D277" s="20">
         <v>842.88</v>
       </c>
-      <c r="E277" s="26" t="s">
+      <c r="E277" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7314,10 +7330,10 @@
       <c r="C278" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D278" s="25">
+      <c r="D278" s="20">
         <v>263.39999999999998</v>
       </c>
-      <c r="E278" s="26" t="s">
+      <c r="E278" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7328,10 +7344,10 @@
       <c r="C279" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D279" s="25">
+      <c r="D279" s="20">
         <v>3202.87</v>
       </c>
-      <c r="E279" s="26" t="s">
+      <c r="E279" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7342,10 +7358,10 @@
       <c r="C280" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D280" s="25">
+      <c r="D280" s="20">
         <v>2912.7</v>
       </c>
-      <c r="E280" s="26" t="s">
+      <c r="E280" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7356,10 +7372,10 @@
       <c r="C281" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D281" s="25">
+      <c r="D281" s="20">
         <v>1735.65</v>
       </c>
-      <c r="E281" s="26" t="s">
+      <c r="E281" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7370,10 +7386,10 @@
       <c r="C282" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D282" s="25">
+      <c r="D282" s="20">
         <v>1679.12</v>
       </c>
-      <c r="E282" s="26" t="s">
+      <c r="E282" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7384,10 +7400,10 @@
       <c r="C283" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D283" s="25">
+      <c r="D283" s="20">
         <v>798</v>
       </c>
-      <c r="E283" s="26" t="s">
+      <c r="E283" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7398,10 +7414,10 @@
       <c r="C284" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D284" s="25">
+      <c r="D284" s="20">
         <v>1159</v>
       </c>
-      <c r="E284" s="26" t="s">
+      <c r="E284" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7412,10 +7428,10 @@
       <c r="C285" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D285" s="25">
+      <c r="D285" s="20">
         <v>668.8</v>
       </c>
-      <c r="E285" s="26" t="s">
+      <c r="E285" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7426,10 +7442,10 @@
       <c r="C286" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D286" s="25">
+      <c r="D286" s="20">
         <v>817</v>
       </c>
-      <c r="E286" s="26" t="s">
+      <c r="E286" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7440,10 +7456,10 @@
       <c r="C287" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D287" s="25">
+      <c r="D287" s="20">
         <v>285.95</v>
       </c>
-      <c r="E287" s="26" t="s">
+      <c r="E287" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7457,19 +7473,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA33317-E992-4D9E-9B83-98EB1F7939C4}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -7485,8 +7501,11 @@
       <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
@@ -7502,8 +7521,12 @@
       <c r="E2" s="1">
         <v>13996.26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)</f>
+        <v>81338.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -7519,8 +7542,12 @@
       <c r="E3" s="1">
         <v>9565.7999999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">SUM(B3:E3)</f>
+        <v>55277.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>72</v>
       </c>
@@ -7536,8 +7563,12 @@
       <c r="E4" s="1">
         <v>14298.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>65544.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -7553,8 +7584,12 @@
       <c r="E5" s="1">
         <v>25170.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>114749.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
@@ -7570,8 +7605,12 @@
       <c r="E6" s="1">
         <v>15494.249999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>102074.29000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
@@ -7587,8 +7626,12 @@
       <c r="E7" s="1">
         <v>45000.32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>95558.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>90</v>
       </c>
@@ -7604,8 +7647,12 @@
       <c r="E8" s="1">
         <v>6552.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>55948.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>110</v>
       </c>
@@ -7621,8 +7668,36 @@
       <c r="E9" s="1">
         <v>16878.71</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>53019.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM(B2:B9)</f>
+        <v>228031.92</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:E10" si="1">SUM(C2:C9)</f>
+        <v>144799.01</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>103724.22</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>146956</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>623511.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7634,7 +7709,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,14 +7739,14 @@
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="29">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>VLOOKUP(B2,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Intermediário</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="20"/>
       <c r="I2" s="48" t="s">
         <v>207</v>
       </c>
@@ -7682,21 +7757,21 @@
       <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="30">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>VLOOKUP(B3,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="I3" s="46" t="s">
+      <c r="D3" s="20"/>
+      <c r="I3" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="32" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7704,21 +7779,21 @@
       <c r="A4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="30">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>VLOOKUP(B4,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Intermediário</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="I4" s="19">
+      <c r="D4" s="20"/>
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="33">
         <v>150</v>
       </c>
     </row>
@@ -7726,21 +7801,21 @@
       <c r="A5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="30">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>VLOOKUP(B5,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="I5" s="19">
+      <c r="D5" s="20"/>
+      <c r="I5" s="14">
         <v>2</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="33">
         <v>180</v>
       </c>
     </row>
@@ -7748,21 +7823,21 @@
       <c r="A6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>VLOOKUP(B6,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Básico</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="I6" s="19">
+      <c r="D6" s="20"/>
+      <c r="I6" s="14">
         <v>3</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="33">
         <v>270</v>
       </c>
     </row>
@@ -7770,21 +7845,21 @@
       <c r="A7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="31">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>VLOOKUP(B7,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Básico</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="I7" s="19">
+      <c r="D7" s="20"/>
+      <c r="I7" s="14">
         <v>4</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="33">
         <v>130</v>
       </c>
     </row>
@@ -7792,21 +7867,21 @@
       <c r="A8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>VLOOKUP(B8,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Básico</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="I8" s="19">
+      <c r="D8" s="20"/>
+      <c r="I8" s="14">
         <v>5</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="33">
         <v>180</v>
       </c>
     </row>
@@ -7814,21 +7889,21 @@
       <c r="A9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="31">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>VLOOKUP(B9,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Básico</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="I9" s="19">
+      <c r="D9" s="20"/>
+      <c r="I9" s="14">
         <v>6</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="33">
         <v>230</v>
       </c>
     </row>
@@ -7836,21 +7911,21 @@
       <c r="A10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="31">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>VLOOKUP(B10,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Avançado</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="I10" s="19">
+      <c r="D10" s="20"/>
+      <c r="I10" s="14">
         <v>7</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="33">
         <v>170</v>
       </c>
     </row>
@@ -7858,21 +7933,21 @@
       <c r="A11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="31">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>VLOOKUP(B11,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Avançado</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="I11" s="19">
+      <c r="D11" s="20"/>
+      <c r="I11" s="14">
         <v>8</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="33">
         <v>217</v>
       </c>
     </row>
@@ -7880,21 +7955,21 @@
       <c r="A12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="31">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>VLOOKUP(B12,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="I12" s="19">
+      <c r="D12" s="20"/>
+      <c r="I12" s="14">
         <v>9</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="33">
         <v>280</v>
       </c>
     </row>
@@ -7902,131 +7977,131 @@
       <c r="A13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="31">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>VLOOKUP(B13,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Intermediário</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="31">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>VLOOKUP(B14,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Avançado</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="31">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>VLOOKUP(B15,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Intermediário</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="31">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>VLOOKUP(B16,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="31">
         <v>4</v>
       </c>
       <c r="C17" s="5" t="str">
         <f>VLOOKUP(B17,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Básico</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="31">
         <v>9</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>VLOOKUP(B18,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Avançado</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="31">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>VLOOKUP(B19,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Básico</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="31">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="str">
         <f>VLOOKUP(B20,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Intermediário</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="31">
         <v>5</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>VLOOKUP(B21,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Intermediário</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="31">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>VLOOKUP(B22,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Básico</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8044,7 +8119,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,2302 +8153,2302 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="26">
         <v>42561</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="28">
         <v>2660</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="26">
         <v>42561</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="28">
         <v>5632</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="26">
         <v>42561</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="28">
         <v>2112</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="26">
         <v>42562</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="28">
         <v>1408</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="26">
         <v>42563</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="28">
         <v>7040</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="26">
         <v>42566</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="28">
         <v>1056</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="26">
         <v>42566</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="28">
         <v>3520</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="26">
         <v>42566</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="28">
         <v>5280</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="26">
         <v>42609</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="28">
         <v>1560</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="26">
         <v>42566</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="28">
         <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="26">
         <v>42597</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="28">
         <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="26">
         <v>42566</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="28">
         <v>1206</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="26">
         <v>42505</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="28">
         <v>3520</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="26">
         <v>42505</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="28">
         <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="26">
         <v>42566</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="28">
         <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="26">
         <v>42546</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="28">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="26">
         <v>42546</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="28">
         <v>1112</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="26">
         <v>42609</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="28">
         <v>110.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="26">
         <v>42566</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="28">
         <v>19200</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="26">
         <v>42566</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="28">
         <v>884.4</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="26">
         <v>42546</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="28">
         <v>3047</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="26">
         <v>42597</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="28">
         <v>2437.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="26">
         <v>42546</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="28">
         <v>1300</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="26">
         <v>42546</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="28">
         <v>1560</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="26">
         <v>42515</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="28">
         <v>2816</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="26">
         <v>42597</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="28">
         <v>2502</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="26">
         <v>42546</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="28">
         <v>1560</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="26">
         <v>42546</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="28">
         <v>1950</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="26">
         <v>42546</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="28">
         <v>498.6</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="26">
         <v>42546</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="28">
         <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="26">
         <v>42566</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="28">
         <v>4224</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="26">
         <v>42561</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="28">
         <v>2080</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="26">
         <v>42546</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="28">
         <v>2340</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="26">
         <v>42597</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="28">
         <v>1385</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="26">
         <v>42566</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="28">
         <v>1378</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="26">
         <v>42546</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="28">
         <v>3216</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="26">
         <v>42546</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="28">
         <v>4787.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="26">
         <v>42546</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="28">
         <v>2653.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="26">
         <v>42561</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="28">
         <v>3336</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="26">
         <v>42597</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="28">
         <v>2130.6</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
+      <c r="A42" s="25">
         <v>41</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="26">
         <v>42594</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="28">
         <v>2502</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="26">
         <v>42597</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="28">
         <v>1108</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="26">
         <v>42597</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="28">
         <v>2880</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="26">
         <v>42566</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="28">
         <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="26">
         <v>42505</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="28">
         <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="26">
         <v>42597</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="28">
         <v>211.2</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="26">
         <v>42597</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="28">
         <v>884.4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="26">
         <v>42597</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="28">
         <v>2557.6</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
-      <c r="B50" s="40">
+      <c r="B50" s="26">
         <v>42594</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="28">
         <v>4020</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="40">
+      <c r="B51" s="26">
         <v>42594</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="28">
         <v>6672</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="26">
         <v>42597</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="28">
         <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="40">
+      <c r="B53" s="26">
         <v>42500</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="28">
         <v>4800</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="26">
         <v>42609</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F54" s="28">
         <v>2412</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
+      <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="40">
+      <c r="B55" s="26">
         <v>42517</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55" s="28">
         <v>2770</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="40">
+      <c r="B56" s="26">
         <v>42561</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="28">
         <v>2770</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="39">
+      <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="40">
+      <c r="B57" s="26">
         <v>42546</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="28">
         <v>3324</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="26">
         <v>42609</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58" s="28">
         <v>4800</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+      <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="40">
+      <c r="B59" s="26">
         <v>42566</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="42">
+      <c r="F59" s="28">
         <v>1668</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
+      <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="40">
+      <c r="B60" s="26">
         <v>42609</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="28">
         <v>1809</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
+      <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B61" s="26">
         <v>42609</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="28">
         <v>2224</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="39">
+      <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="26">
         <v>42609</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="28">
         <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
+      <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="40">
+      <c r="B63" s="26">
         <v>42517</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="28">
         <v>8340</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="39">
+      <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="40">
+      <c r="B64" s="26">
         <v>42597</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="E64" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="28">
         <v>1527.6</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="39">
+      <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="26">
         <v>42609</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="28">
         <v>7228</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="39">
+      <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="26">
         <v>42609</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="28">
         <v>1274.2</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="39">
+      <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="26">
         <v>42609</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F67" s="28">
         <v>4320</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
+      <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="26">
         <v>42597</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F68" s="42">
+      <c r="F68" s="28">
         <v>2251.1999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="39">
+      <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="26">
         <v>42609</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F69" s="28">
         <v>2770</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="39">
+      <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="40">
+      <c r="B70" s="26">
         <v>42609</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70" s="28">
         <v>4800</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
+      <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="40">
+      <c r="B71" s="26">
         <v>42609</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71" s="28">
         <v>1246.5</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="39">
+      <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="26">
         <v>42609</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="28">
         <v>1800.5</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="39">
+      <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="26">
         <v>42609</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="28">
         <v>4170</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="39">
+      <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="40">
+      <c r="B74" s="26">
         <v>42597</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="E74" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="28">
         <v>2216</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="39">
+      <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="40">
+      <c r="B75" s="26">
         <v>42597</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="28">
         <v>4800</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="39">
+      <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="26">
         <v>42609</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="E76" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="28">
         <v>2412</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
+      <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="40">
+      <c r="B77" s="26">
         <v>42609</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="28">
         <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="39">
+      <c r="A78" s="25">
         <v>77</v>
       </c>
-      <c r="B78" s="40">
+      <c r="B78" s="26">
         <v>42517</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="28">
         <v>2412</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="39">
+      <c r="A79" s="25">
         <v>78</v>
       </c>
-      <c r="B79" s="40">
+      <c r="B79" s="26">
         <v>42609</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="28">
         <v>2770</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
+      <c r="A80" s="25">
         <v>79</v>
       </c>
-      <c r="B80" s="40">
+      <c r="B80" s="26">
         <v>42561</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F80" s="28">
         <v>2770</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="39">
+      <c r="A81" s="25">
         <v>80</v>
       </c>
-      <c r="B81" s="40">
+      <c r="B81" s="26">
         <v>42515</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="28">
         <v>2816</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
+      <c r="A82" s="25">
         <v>81</v>
       </c>
-      <c r="B82" s="40">
+      <c r="B82" s="26">
         <v>42597</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="28">
         <v>2502</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="39">
+      <c r="A83" s="25">
         <v>82</v>
       </c>
-      <c r="B83" s="40">
+      <c r="B83" s="26">
         <v>42546</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="42">
+      <c r="F83" s="28">
         <v>1560</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="39">
+      <c r="A84" s="25">
         <v>83</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="26">
         <v>42546</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F84" s="42">
+      <c r="F84" s="28">
         <v>1950</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="39">
+      <c r="A85" s="25">
         <v>84</v>
       </c>
-      <c r="B85" s="40">
+      <c r="B85" s="26">
         <v>42546</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E85" s="41" t="s">
+      <c r="E85" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F85" s="42">
+      <c r="F85" s="28">
         <v>498.6</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="39">
+      <c r="A86" s="25">
         <v>85</v>
       </c>
-      <c r="B86" s="40">
+      <c r="B86" s="26">
         <v>42546</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="28">
         <v>780</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+      <c r="A87" s="25">
         <v>86</v>
       </c>
-      <c r="B87" s="40">
+      <c r="B87" s="26">
         <v>42566</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="28">
         <v>4224</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="39">
+      <c r="A88" s="25">
         <v>87</v>
       </c>
-      <c r="B88" s="40">
+      <c r="B88" s="26">
         <v>42505</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="28">
         <v>780</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="39">
+      <c r="A89" s="25">
         <v>88</v>
       </c>
-      <c r="B89" s="40">
+      <c r="B89" s="26">
         <v>42566</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D89" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F89" s="42">
+      <c r="F89" s="28">
         <v>1206</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="39">
+      <c r="A90" s="25">
         <v>89</v>
       </c>
-      <c r="B90" s="40">
+      <c r="B90" s="26">
         <v>42566</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E90" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="28">
         <v>3520</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="39">
+      <c r="A91" s="25">
         <v>90</v>
       </c>
-      <c r="B91" s="40">
+      <c r="B91" s="26">
         <v>42566</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D91" s="41" t="s">
+      <c r="D91" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E91" s="41" t="s">
+      <c r="E91" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="28">
         <v>804</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="39">
+      <c r="A92" s="25">
         <v>91</v>
       </c>
-      <c r="B92" s="40">
+      <c r="B92" s="26">
         <v>42566</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E92" s="41" t="s">
+      <c r="E92" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F92" s="42">
+      <c r="F92" s="28">
         <v>556</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="39">
+      <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="40">
+      <c r="B93" s="26">
         <v>42515</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F93" s="28">
         <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="39">
+      <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="40">
+      <c r="B94" s="26">
         <v>42546</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E94" s="41" t="s">
+      <c r="E94" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="28">
         <v>1112</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="39">
+      <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="40">
+      <c r="B95" s="26">
         <v>42563</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E95" s="41" t="s">
+      <c r="E95" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F95" s="42">
+      <c r="F95" s="28">
         <v>7040</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="39">
+      <c r="A96" s="25">
         <v>95</v>
       </c>
-      <c r="B96" s="40">
+      <c r="B96" s="26">
         <v>42566</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="28">
         <v>1056</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="39">
+      <c r="A97" s="25">
         <v>96</v>
       </c>
-      <c r="B97" s="40">
+      <c r="B97" s="26">
         <v>42566</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F97" s="28">
         <v>3520</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="39">
+      <c r="A98" s="25">
         <v>97</v>
       </c>
-      <c r="B98" s="40">
+      <c r="B98" s="26">
         <v>42566</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D98" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E98" s="41" t="s">
+      <c r="E98" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F98" s="28">
         <v>5280</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="39">
+      <c r="A99" s="25">
         <v>98</v>
       </c>
-      <c r="B99" s="40">
+      <c r="B99" s="26">
         <v>42609</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F99" s="28">
         <v>1560</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="39">
+      <c r="A100" s="25">
         <v>99</v>
       </c>
-      <c r="B100" s="40">
+      <c r="B100" s="26">
         <v>42505</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F100" s="42">
+      <c r="F100" s="28">
         <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="39">
+      <c r="A101" s="25">
         <v>100</v>
       </c>
-      <c r="B101" s="40">
+      <c r="B101" s="26">
         <v>42597</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E101" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F101" s="42">
+      <c r="F101" s="28">
         <v>780</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="39">
+      <c r="A102" s="25">
         <v>101</v>
       </c>
-      <c r="B102" s="40">
+      <c r="B102" s="26">
         <v>42566</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F102" s="28">
         <v>1206</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="39">
+      <c r="A103" s="25">
         <v>102</v>
       </c>
-      <c r="B103" s="40">
+      <c r="B103" s="26">
         <v>42566</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D103" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F103" s="42">
+      <c r="F103" s="28">
         <v>3520</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="39">
+      <c r="A104" s="25">
         <v>103</v>
       </c>
-      <c r="B104" s="40">
+      <c r="B104" s="26">
         <v>42566</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C104" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F104" s="42">
+      <c r="F104" s="28">
         <v>804</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="39">
+      <c r="A105" s="25">
         <v>104</v>
       </c>
-      <c r="B105" s="40">
+      <c r="B105" s="26">
         <v>42566</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F105" s="28">
         <v>556</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="39">
+      <c r="A106" s="25">
         <v>105</v>
       </c>
-      <c r="B106" s="40">
+      <c r="B106" s="26">
         <v>42546</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="41" t="s">
+      <c r="D106" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="E106" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106" s="28">
         <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="39">
+      <c r="A107" s="25">
         <v>106</v>
       </c>
-      <c r="B107" s="40">
+      <c r="B107" s="26">
         <v>42546</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E107" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F107" s="42">
+      <c r="F107" s="28">
         <v>1112</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="39">
+      <c r="A108" s="25">
         <v>107</v>
       </c>
-      <c r="B108" s="40">
+      <c r="B108" s="26">
         <v>42517</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F108" s="42">
+      <c r="F108" s="28">
         <v>110.8</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="39">
+      <c r="A109" s="25">
         <v>108</v>
       </c>
-      <c r="B109" s="40">
+      <c r="B109" s="26">
         <v>42566</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D109" s="41" t="s">
+      <c r="D109" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E109" s="41" t="s">
+      <c r="E109" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F109" s="42">
+      <c r="F109" s="28">
         <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="39">
+      <c r="A110" s="25">
         <v>109</v>
       </c>
-      <c r="B110" s="40">
+      <c r="B110" s="26">
         <v>42597</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D110" s="41" t="s">
+      <c r="D110" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="41" t="s">
+      <c r="E110" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F110" s="42">
+      <c r="F110" s="28">
         <v>780</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="39">
+      <c r="A111" s="25">
         <v>110</v>
       </c>
-      <c r="B111" s="40">
+      <c r="B111" s="26">
         <v>42566</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F111" s="28">
         <v>1206</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="39">
+      <c r="A112" s="25">
         <v>111</v>
       </c>
-      <c r="B112" s="40">
+      <c r="B112" s="26">
         <v>42505</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D112" s="41" t="s">
+      <c r="D112" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E112" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F112" s="42">
+      <c r="F112" s="28">
         <v>3520</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="39">
+      <c r="A113" s="25">
         <v>112</v>
       </c>
-      <c r="B113" s="40">
+      <c r="B113" s="26">
         <v>42505</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D113" s="41" t="s">
+      <c r="D113" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E113" s="41" t="s">
+      <c r="E113" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F113" s="42">
+      <c r="F113" s="28">
         <v>804</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="39">
+      <c r="A114" s="25">
         <v>113</v>
       </c>
-      <c r="B114" s="40">
+      <c r="B114" s="26">
         <v>42609</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D114" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E114" s="41" t="s">
+      <c r="E114" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F114" s="42">
+      <c r="F114" s="28">
         <v>1560</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="39">
+      <c r="A115" s="25">
         <v>114</v>
       </c>
-      <c r="B115" s="40">
+      <c r="B115" s="26">
         <v>42505</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C115" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D115" s="41" t="s">
+      <c r="D115" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="E115" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F115" s="42">
+      <c r="F115" s="28">
         <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="39">
+      <c r="A116" s="25">
         <v>115</v>
       </c>
-      <c r="B116" s="40">
+      <c r="B116" s="26">
         <v>42597</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D116" s="41" t="s">
+      <c r="D116" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="41" t="s">
+      <c r="E116" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F116" s="42">
+      <c r="F116" s="28">
         <v>780</v>
       </c>
     </row>
@@ -10388,7 +10463,7 @@
   <dimension ref="A4:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10525,15 +10600,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9">
         <v>2</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9">
         <v>3</v>
       </c>
     </row>

--- a/Turma Maio 2017/Aula 20/Prova 2 turma Maio.xlsx
+++ b/Turma Maio 2017/Aula 20/Prova 2 turma Maio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="7530" activeTab="4" xr2:uid="{20A01A96-4863-47FF-9CF8-D9E1F99D6315}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="7530" xr2:uid="{20A01A96-4863-47FF-9CF8-D9E1F99D6315}"/>
   </bookViews>
   <sheets>
     <sheet name="Prova 2" sheetId="9" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="FUNÇÕES TEXTO" sheetId="6" r:id="rId8"/>
     <sheet name="CONCATENAR" sheetId="7" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Soma Ses'!$A$1:$H$287</definedName>
   </definedNames>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="224">
   <si>
     <t>Cidade</t>
   </si>
@@ -726,7 +723,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +780,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1088,7 +1098,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1192,8 +1202,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -2247,121 +2261,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Plan1"/>
-      <sheetName val="tabela de preço"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Inglês Básico</v>
-          </cell>
-          <cell r="C2">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Inglês Intermediário</v>
-          </cell>
-          <cell r="C3">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Inglês Avançado</v>
-          </cell>
-          <cell r="C4">
-            <v>270</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Espanhol Básico</v>
-          </cell>
-          <cell r="C5">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Espanhol Intermediário</v>
-          </cell>
-          <cell r="C6">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Espanhol Avançado</v>
-          </cell>
-          <cell r="C7">
-            <v>230</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Francês Básico</v>
-          </cell>
-          <cell r="C8">
-            <v>170</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Francês Intermediário</v>
-          </cell>
-          <cell r="C9">
-            <v>217</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Francês Avançado</v>
-          </cell>
-          <cell r="C10">
-            <v>280</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2661,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29531A9F-49D2-4A8C-BFBC-62538C47D0DD}">
   <dimension ref="C3:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -7475,225 +7374,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA33317-E992-4D9E-9B83-98EB1F7939C4}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="55">
         <v>39352.79</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="55">
         <v>18109.71</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="55">
         <v>9879.2999999999993</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="55">
         <v>13996.26</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="55">
         <f>SUM(B2:E2)</f>
         <v>81338.06</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="55">
         <v>28640.780000000002</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="55">
         <v>11849.16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="55">
         <v>5221.82</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="55">
         <v>9565.7999999999993</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="55">
         <f t="shared" ref="F3:F10" si="0">SUM(B3:E3)</f>
         <v>55277.56</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="55">
         <v>19639.53</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="55">
         <v>18987.810000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="55">
         <v>12618.51</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="55">
         <v>14298.34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="55">
         <f t="shared" si="0"/>
         <v>65544.19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="55">
         <v>43692.42</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="55">
         <v>29729.96</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="55">
         <v>16157.25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="55">
         <v>25170.12</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="55">
         <f t="shared" si="0"/>
         <v>114749.75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="55">
         <v>35092.33</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="55">
         <v>36247.240000000005</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="55">
         <v>15240.470000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="55">
         <v>15494.249999999998</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="55">
         <f t="shared" si="0"/>
         <v>102074.29000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="55">
         <v>31678.02</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="55">
         <v>12064.080000000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="55">
         <v>6816.08</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="55">
         <v>45000.32</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="55">
         <f t="shared" si="0"/>
         <v>95558.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="55">
         <v>26788.250000000004</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="55">
         <v>13256.05</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="55">
         <v>9352.32</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="55">
         <v>6552.2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="55">
         <f t="shared" si="0"/>
         <v>55948.82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="55">
         <v>3147.8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="55">
         <v>4555</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="55">
         <v>28438.47</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="55">
         <v>16878.71</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="55">
         <f t="shared" si="0"/>
         <v>53019.98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="55">
         <f>SUM(B2:B9)</f>
         <v>228031.92</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="55">
         <f t="shared" ref="C10:E10" si="1">SUM(C2:C9)</f>
         <v>144799.01</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="55">
         <f t="shared" si="1"/>
         <v>103724.22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="55">
         <f t="shared" si="1"/>
         <v>146956</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="55">
         <f t="shared" si="0"/>
         <v>623511.15</v>
       </c>
@@ -7742,9 +7642,8 @@
       <c r="B2" s="29">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>VLOOKUP(B2,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Intermediário</v>
+      <c r="C2" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D2" s="20"/>
       <c r="I2" s="48" t="s">
@@ -7760,9 +7659,8 @@
       <c r="B3" s="30">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f>VLOOKUP(B3,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Avançado</v>
+      <c r="C3" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D3" s="20"/>
       <c r="I3" s="32" t="s">
@@ -7782,9 +7680,8 @@
       <c r="B4" s="30">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f>VLOOKUP(B4,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Intermediário</v>
+      <c r="C4" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D4" s="20"/>
       <c r="I4" s="14">
@@ -7804,9 +7701,8 @@
       <c r="B5" s="30">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f>VLOOKUP(B5,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Avançado</v>
+      <c r="C5" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D5" s="20"/>
       <c r="I5" s="14">
@@ -7826,9 +7722,8 @@
       <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f>VLOOKUP(B6,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Básico</v>
+      <c r="C6" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D6" s="20"/>
       <c r="I6" s="14">
@@ -7848,9 +7743,8 @@
       <c r="B7" s="31">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f>VLOOKUP(B7,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Básico</v>
+      <c r="C7" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D7" s="20"/>
       <c r="I7" s="14">
@@ -7870,9 +7764,8 @@
       <c r="B8" s="31">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="str">
-        <f>VLOOKUP(B8,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Básico</v>
+      <c r="C8" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D8" s="20"/>
       <c r="I8" s="14">
@@ -7892,9 +7785,8 @@
       <c r="B9" s="31">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="str">
-        <f>VLOOKUP(B9,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Básico</v>
+      <c r="C9" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D9" s="20"/>
       <c r="I9" s="14">
@@ -7914,9 +7806,8 @@
       <c r="B10" s="31">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f>VLOOKUP(B10,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Avançado</v>
+      <c r="C10" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D10" s="20"/>
       <c r="I10" s="14">
@@ -7936,9 +7827,8 @@
       <c r="B11" s="31">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f>VLOOKUP(B11,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Avançado</v>
+      <c r="C11" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="I11" s="14">
@@ -7958,9 +7848,8 @@
       <c r="B12" s="31">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="str">
-        <f>VLOOKUP(B12,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Avançado</v>
+      <c r="C12" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="I12" s="14">
@@ -7980,9 +7869,8 @@
       <c r="B13" s="31">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f>VLOOKUP(B13,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Francês Intermediário</v>
+      <c r="C13" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
     </row>
@@ -7993,9 +7881,8 @@
       <c r="B14" s="31">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="str">
-        <f>VLOOKUP(B14,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Avançado</v>
+      <c r="C14" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
     </row>
@@ -8006,9 +7893,8 @@
       <c r="B15" s="31">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <f>VLOOKUP(B15,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Intermediário</v>
+      <c r="C15" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D15" s="20"/>
     </row>
@@ -8019,9 +7905,8 @@
       <c r="B16" s="31">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="str">
-        <f>VLOOKUP(B16,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Avançado</v>
+      <c r="C16" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D16" s="20"/>
     </row>
@@ -8032,9 +7917,8 @@
       <c r="B17" s="31">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="str">
-        <f>VLOOKUP(B17,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Básico</v>
+      <c r="C17" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D17" s="20"/>
     </row>
@@ -8045,9 +7929,8 @@
       <c r="B18" s="31">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="str">
-        <f>VLOOKUP(B18,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Francês Avançado</v>
+      <c r="C18" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D18" s="20"/>
     </row>
@@ -8058,9 +7941,8 @@
       <c r="B19" s="31">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="str">
-        <f>VLOOKUP(B19,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Inglês Básico</v>
+      <c r="C19" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D19" s="20"/>
     </row>
@@ -8071,9 +7953,8 @@
       <c r="B20" s="31">
         <v>8</v>
       </c>
-      <c r="C20" s="5" t="str">
-        <f>VLOOKUP(B20,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Francês Intermediário</v>
+      <c r="C20" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D20" s="20"/>
     </row>
@@ -8084,9 +7965,8 @@
       <c r="B21" s="31">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="str">
-        <f>VLOOKUP(B21,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Espanhol Intermediário</v>
+      <c r="C21" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D21" s="20"/>
     </row>
@@ -8097,9 +7977,8 @@
       <c r="B22" s="31">
         <v>7</v>
       </c>
-      <c r="C22" s="5" t="str">
-        <f>VLOOKUP(B22,'[1]tabela de preço'!$A$2:$C$10,2,0)</f>
-        <v>Francês Básico</v>
+      <c r="C22" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D22" s="20"/>
     </row>
